--- a/output/frat/conceptnet-local_embedding_search/depth_2/frat_3_conceptnet_search.xlsx
+++ b/output/frat/conceptnet-local_embedding_search/depth_2/frat_3_conceptnet_search.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rejna/projects/github.com/r_m_thesis/output/frat/depth_2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\r_m_thesis\output\frat\conceptnet-local_embedding_search\depth_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C36B7BC-8DEA-5F46-A31F-313F53FE17B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218A744D-215E-4A9A-BA65-3EE06215033E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1107,18 +1107,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="3" max="3" width="39.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="1" max="1" width="33.36328125" customWidth="1"/>
+    <col min="2" max="2" width="27.6328125" customWidth="1"/>
+    <col min="3" max="3" width="39.36328125" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1144,7 +1146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1164,7 +1166,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1184,7 +1186,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1204,7 +1206,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1224,7 +1226,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1244,7 +1246,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1255,7 +1257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1275,7 +1277,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1295,7 +1297,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1315,7 +1317,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1335,7 +1337,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1355,7 +1357,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1375,7 +1377,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1395,7 +1397,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1415,7 +1417,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1435,7 +1437,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1455,7 +1457,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1475,7 +1477,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1495,7 +1497,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1515,7 +1517,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1535,7 +1537,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1555,7 +1557,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1575,7 +1577,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1595,7 +1597,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1615,7 +1617,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1635,7 +1637,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1655,7 +1657,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1675,7 +1677,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1695,7 +1697,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1706,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1726,7 +1728,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1740,7 +1742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1760,7 +1762,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -1780,7 +1782,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -1791,7 +1793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -1811,7 +1813,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -1831,7 +1833,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1845,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -1865,7 +1867,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -1885,7 +1887,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -1905,7 +1907,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -1925,7 +1927,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -1945,7 +1947,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -1965,7 +1967,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -1985,7 +1987,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -1999,7 +2001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -2019,7 +2021,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -2033,7 +2035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H50" t="s">
         <v>227</v>
       </c>
